--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LammBoja\Desktop\Pelisetit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veni\Desktop\Pelikurssi GitHub\Pelikurssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,6 +418,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -437,7 +438,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -751,11 +751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,65 +770,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="16" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="M4" s="19" t="s">
+      <c r="K4" s="18"/>
+      <c r="M4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="20"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="21" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="8" t="s">
         <v>10</v>
       </c>
@@ -923,7 +923,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="25">
+      <c r="H8" s="16">
         <v>43133</v>
       </c>
       <c r="I8" s="3">
@@ -963,7 +963,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -995,7 +995,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>4.2.</t>
+  </si>
+  <si>
+    <t>5.2.</t>
+  </si>
+  <si>
+    <t>6.2.</t>
+  </si>
+  <si>
+    <t>7.2.</t>
   </si>
 </sst>
 </file>
@@ -401,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -438,6 +447,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -755,7 +765,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +973,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1007,8 +1017,12 @@
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
+      <c r="J12" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
@@ -1019,8 +1033,12 @@
       <c r="G13" s="3"/>
       <c r="H13" s="1"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
+      <c r="J13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -1031,8 +1049,12 @@
       <c r="G14" s="3"/>
       <c r="H14" s="1"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veni\Desktop\Pelikurssi GitHub\Pelikurssi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LammBoja\Desktop\Pelikurssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,6 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -447,7 +448,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -761,11 +761,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,65 +780,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="M4" s="20" t="s">
+      <c r="K4" s="19"/>
+      <c r="M4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="21"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="22" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="8" t="s">
         <v>10</v>
       </c>
@@ -933,8 +933,8 @@
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="16">
-        <v>43133</v>
+      <c r="H8" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="I8" s="3">
         <v>5</v>
@@ -1017,7 +1017,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="17" t="s">
         <v>25</v>
       </c>
       <c r="K12" s="3">

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LammBoja\Desktop\Pelikurssi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vemmu\Desktop\Pelikurssi GitHub\Pelikurssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -450,7 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -765,21 +765,21 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.7265625" customWidth="1"/>
+    <col min="13" max="13" width="10.26953125" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.8">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -789,8 +789,8 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:14" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -819,7 +819,7 @@
       </c>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -851,7 +851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -926,7 +926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="1"/>
@@ -953,7 +953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="1"/>
@@ -973,10 +973,10 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="1"/>
@@ -992,7 +992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
@@ -1008,7 +1008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
@@ -1024,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
@@ -1053,10 +1053,10 @@
         <v>27</v>
       </c>
       <c r="K14" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
@@ -1068,7 +1068,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
@@ -1080,7 +1080,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
@@ -1092,7 +1092,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
@@ -1104,7 +1104,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
@@ -1116,7 +1116,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
@@ -1128,7 +1128,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
       <c r="D21" s="1"/>
@@ -1140,7 +1140,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
       <c r="D22" s="1"/>
@@ -1152,7 +1152,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
       <c r="D23" s="1"/>
@@ -1164,7 +1164,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
       <c r="D24" s="1"/>
@@ -1176,7 +1176,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
       <c r="D25" s="1"/>
@@ -1188,7 +1188,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
       <c r="D26" s="1"/>
@@ -1200,7 +1200,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
@@ -1212,7 +1212,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
       <c r="D28" s="1"/>
@@ -1224,7 +1224,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="3"/>
       <c r="D29" s="1"/>
@@ -1236,7 +1236,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="3"/>
       <c r="D30" s="1"/>
@@ -1248,7 +1248,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
       <c r="D31" s="1"/>
@@ -1260,7 +1260,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="3"/>
       <c r="D32" s="1"/>
@@ -1272,7 +1272,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
       <c r="D33" s="1"/>
@@ -1284,7 +1284,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
       <c r="D34" s="1"/>
@@ -1296,7 +1296,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="1"/>
@@ -1308,7 +1308,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="1"/>
@@ -1320,7 +1320,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="1"/>
@@ -1332,7 +1332,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
       <c r="D38" s="1"/>
@@ -1344,7 +1344,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="1"/>
@@ -1356,7 +1356,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
       <c r="D40" s="1"/>
@@ -1368,7 +1368,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="1"/>
@@ -1380,7 +1380,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
       <c r="D42" s="1"/>
@@ -1392,7 +1392,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
       <c r="D43" s="1"/>
@@ -1404,7 +1404,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
       <c r="D44" s="1"/>
@@ -1416,7 +1416,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
       <c r="D45" s="1"/>
@@ -1428,7 +1428,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
       <c r="D46" s="1"/>
@@ -1440,7 +1440,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="1"/>
@@ -1452,7 +1452,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
       <c r="D48" s="1"/>
@@ -1464,7 +1464,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
       <c r="D49" s="1"/>
@@ -1476,7 +1476,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
       <c r="D50" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vemmu\Desktop\Pelikurssi GitHub\Pelikurssi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janne\Documents\GitHub\Pelikurssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -108,12 +108,15 @@
   </si>
   <si>
     <t>7.2.</t>
+  </si>
+  <si>
+    <t>8.2.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -761,25 +764,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="11" max="11" width="17.7265625" customWidth="1"/>
-    <col min="13" max="13" width="10.26953125" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -789,8 +792,8 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:14" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -819,7 +822,7 @@
       </c>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -851,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -888,10 +891,10 @@
       </c>
       <c r="N6" s="12">
         <f>SUM(E7:E42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -926,7 +929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="1"/>
@@ -953,11 +956,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
@@ -976,11 +983,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="3"/>
       <c r="H10" s="1"/>
@@ -992,11 +1003,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
@@ -1008,11 +1023,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
@@ -1024,11 +1043,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="3"/>
       <c r="H13" s="1"/>
@@ -1040,11 +1063,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="3"/>
       <c r="H14" s="1"/>
@@ -1056,11 +1083,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="3"/>
       <c r="H15" s="1"/>
@@ -1068,7 +1099,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
@@ -1080,7 +1111,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
@@ -1092,7 +1123,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
@@ -1104,7 +1135,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
@@ -1116,7 +1147,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
@@ -1128,7 +1159,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
       <c r="D21" s="1"/>
@@ -1140,7 +1171,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
       <c r="D22" s="1"/>
@@ -1152,7 +1183,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
       <c r="D23" s="1"/>
@@ -1164,7 +1195,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
       <c r="D24" s="1"/>
@@ -1176,7 +1207,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
       <c r="D25" s="1"/>
@@ -1188,7 +1219,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
       <c r="D26" s="1"/>
@@ -1200,7 +1231,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
@@ -1212,7 +1243,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
       <c r="D28" s="1"/>
@@ -1224,7 +1255,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="3"/>
       <c r="D29" s="1"/>
@@ -1236,7 +1267,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="3"/>
       <c r="D30" s="1"/>
@@ -1248,7 +1279,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
       <c r="D31" s="1"/>
@@ -1260,7 +1291,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="3"/>
       <c r="D32" s="1"/>
@@ -1272,7 +1303,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
       <c r="D33" s="1"/>
@@ -1284,7 +1315,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
       <c r="D34" s="1"/>
@@ -1296,7 +1327,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="1"/>
@@ -1308,7 +1339,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="1"/>
@@ -1320,7 +1351,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="1"/>
@@ -1332,7 +1363,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
       <c r="D38" s="1"/>
@@ -1344,7 +1375,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="1"/>
@@ -1356,7 +1387,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
       <c r="D40" s="1"/>
@@ -1368,7 +1399,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="1"/>
@@ -1380,7 +1411,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
       <c r="D42" s="1"/>
@@ -1392,7 +1423,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
       <c r="D43" s="1"/>
@@ -1404,7 +1435,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
       <c r="D44" s="1"/>
@@ -1416,7 +1447,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
       <c r="D45" s="1"/>
@@ -1428,7 +1459,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
       <c r="D46" s="1"/>
@@ -1440,7 +1471,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="1"/>
@@ -1452,7 +1483,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
       <c r="D48" s="1"/>
@@ -1464,7 +1495,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
       <c r="D49" s="1"/>
@@ -1476,7 +1507,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
       <c r="D50" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janne\Documents\GitHub\Pelikurssi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LammBoja\Desktop\Pelikurssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -764,11 +764,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +953,7 @@
       </c>
       <c r="N8" s="12">
         <f>SUM(I7:I42)</f>
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -967,8 +967,12 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
       <c r="J9" s="15" t="s">
         <v>22</v>
       </c>
@@ -980,7 +984,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -994,8 +998,12 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
       <c r="J10" s="15" t="s">
         <v>23</v>
       </c>
@@ -1014,8 +1022,12 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
       <c r="J11" s="15" t="s">
         <v>24</v>
       </c>
@@ -1034,8 +1046,12 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3">
+        <v>12</v>
+      </c>
       <c r="J12" s="17" t="s">
         <v>25</v>
       </c>
@@ -1054,8 +1070,12 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="3">
+        <v>6</v>
+      </c>
       <c r="J13" s="15" t="s">
         <v>26</v>
       </c>
@@ -1096,8 +1116,12 @@
       <c r="G15" s="3"/>
       <c r="H15" s="1"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
+      <c r="J15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LammBoja\Desktop\Pelikurssi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veni\Desktop\Pelikurssi GitHub\Pelikurssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -111,12 +111,15 @@
   </si>
   <si>
     <t>8.2.</t>
+  </si>
+  <si>
+    <t>10.2.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -764,11 +767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +987,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1132,8 +1135,12 @@
       <c r="G16" s="3"/>
       <c r="H16" s="1"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="3"/>
+      <c r="J16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>10.2.</t>
+  </si>
+  <si>
+    <t>11.2.</t>
   </si>
 </sst>
 </file>
@@ -771,7 +774,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +990,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1139,7 +1142,7 @@
         <v>29</v>
       </c>
       <c r="K16" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -1151,8 +1154,12 @@
       <c r="G17" s="3"/>
       <c r="H17" s="1"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
+      <c r="J17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -117,6 +117,21 @@
   </si>
   <si>
     <t>11.2.</t>
+  </si>
+  <si>
+    <t>12.2.</t>
+  </si>
+  <si>
+    <t>15.2.</t>
+  </si>
+  <si>
+    <t>14.2.</t>
+  </si>
+  <si>
+    <t>13.2.</t>
+  </si>
+  <si>
+    <t>16.2.</t>
   </si>
 </sst>
 </file>
@@ -773,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +1005,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1170,8 +1185,12 @@
       <c r="G18" s="3"/>
       <c r="H18" s="1"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -1182,8 +1201,12 @@
       <c r="G19" s="3"/>
       <c r="H19" s="1"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
+      <c r="J19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
@@ -1194,8 +1217,12 @@
       <c r="G20" s="3"/>
       <c r="H20" s="1"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="3"/>
+      <c r="J20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
@@ -1206,8 +1233,12 @@
       <c r="G21" s="3"/>
       <c r="H21" s="1"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="3"/>
+      <c r="J21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
@@ -1218,8 +1249,12 @@
       <c r="G22" s="3"/>
       <c r="H22" s="1"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="3"/>
+      <c r="J22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>16.2.</t>
+  </si>
+  <si>
+    <t>21.2.</t>
   </si>
 </sst>
 </file>
@@ -789,7 +792,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1008,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1265,8 +1268,12 @@
       <c r="G23" s="3"/>
       <c r="H23" s="1"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>21.2.</t>
+  </si>
+  <si>
+    <t>26.2.</t>
   </si>
 </sst>
 </file>
@@ -792,7 +795,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1011,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1284,8 +1287,12 @@
       <c r="G24" s="3"/>
       <c r="H24" s="1"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="3"/>
+      <c r="J24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>26.2.</t>
+  </si>
+  <si>
+    <t>28.8.</t>
   </si>
 </sst>
 </file>
@@ -795,7 +798,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1014,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1303,8 +1306,12 @@
       <c r="G25" s="3"/>
       <c r="H25" s="1"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="3"/>
+      <c r="J25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -140,7 +140,10 @@
     <t>26.2.</t>
   </si>
   <si>
-    <t>28.8.</t>
+    <t>28.2.</t>
+  </si>
+  <si>
+    <t>1.3.</t>
   </si>
 </sst>
 </file>
@@ -797,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1017,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1322,8 +1325,12 @@
       <c r="G26" s="3"/>
       <c r="H26" s="1"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="3"/>
+      <c r="J26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veni\Desktop\Pelikurssi GitHub\Pelikurssi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Koulu\Pelikurssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>1.3.</t>
+  </si>
+  <si>
+    <t>2.3.</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -484,6 +487,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -801,7 +809,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +892,7 @@
       </c>
       <c r="N5" s="12">
         <f>SUM(C7:C50)</f>
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -963,8 +971,12 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="29">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
@@ -990,8 +1002,12 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="29">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
       <c r="D9" s="16" t="s">
         <v>22</v>
       </c>
@@ -1021,8 +1037,12 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="29">
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1045,8 +1065,12 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1069,8 +1093,12 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
       <c r="D12" s="16" t="s">
         <v>25</v>
       </c>
@@ -1093,7 +1121,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="3"/>
       <c r="D13" s="16" t="s">
         <v>26</v>
@@ -1117,7 +1145,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="3"/>
       <c r="D14" s="16" t="s">
         <v>27</v>
@@ -1137,7 +1165,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1" t="s">
         <v>28</v>
@@ -1157,7 +1185,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
@@ -1173,7 +1201,7 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
@@ -1189,7 +1217,7 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
@@ -1205,7 +1233,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
@@ -1221,7 +1249,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
@@ -1237,7 +1265,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="3"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
@@ -1253,7 +1281,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="3"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
@@ -1269,7 +1297,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="3"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
@@ -1285,7 +1313,7 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="3"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
@@ -1301,7 +1329,7 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="3"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
@@ -1317,7 +1345,7 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="3"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
@@ -1333,7 +1361,7 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
@@ -1345,7 +1373,7 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="3"/>
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
@@ -1357,7 +1385,7 @@
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="3"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Koulu\Pelikurssi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veni\Desktop\Pelikurssi GitHub\Pelikurssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>2.3.</t>
+  </si>
+  <si>
+    <t>3.3.</t>
+  </si>
+  <si>
+    <t>4.3.</t>
+  </si>
+  <si>
+    <t>5.3.</t>
   </si>
 </sst>
 </file>
@@ -468,6 +477,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -487,11 +501,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -809,7 +818,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,65 +833,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="18" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="18" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="M4" s="21" t="s">
+      <c r="K4" s="22"/>
+      <c r="M4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="22"/>
+      <c r="N4" s="25"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="25" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="23" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="8" t="s">
         <v>10</v>
       </c>
@@ -971,7 +980,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="29">
+      <c r="B8" s="20">
         <v>0.12638888888888888</v>
       </c>
       <c r="C8" s="3">
@@ -1002,7 +1011,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29">
+      <c r="B9" s="20">
         <v>0.4597222222222222</v>
       </c>
       <c r="C9" s="3">
@@ -1033,11 +1042,11 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="29">
+      <c r="B10" s="20">
         <v>0.95972222222222225</v>
       </c>
       <c r="C10" s="3">
@@ -1065,7 +1074,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="3">
@@ -1093,7 +1102,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="3">
@@ -1121,7 +1130,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="3"/>
       <c r="D13" s="16" t="s">
         <v>26</v>
@@ -1145,7 +1154,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3"/>
       <c r="D14" s="16" t="s">
         <v>27</v>
@@ -1165,7 +1174,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1" t="s">
         <v>28</v>
@@ -1185,7 +1194,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
@@ -1201,7 +1210,7 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
@@ -1217,7 +1226,7 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
@@ -1233,7 +1242,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
@@ -1249,7 +1258,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
@@ -1265,7 +1274,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="3"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
@@ -1281,7 +1290,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="3"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
@@ -1297,7 +1306,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="3"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
@@ -1313,7 +1322,7 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="3"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
@@ -1329,7 +1338,7 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="3"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
@@ -1345,7 +1354,7 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="3"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
@@ -1361,7 +1370,7 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
@@ -1369,11 +1378,15 @@
       <c r="G27" s="3"/>
       <c r="H27" s="1"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="3"/>
+      <c r="J27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="3"/>
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
@@ -1381,11 +1394,15 @@
       <c r="G28" s="3"/>
       <c r="H28" s="1"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="3"/>
+      <c r="J28" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="3"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
@@ -1393,8 +1410,12 @@
       <c r="G29" s="3"/>
       <c r="H29" s="1"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="3"/>
+      <c r="J29" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veni\Desktop\Pelikurssi GitHub\Pelikurssi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LammBoja\Desktop\Pelikurssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="8610"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -156,12 +156,15 @@
   </si>
   <si>
     <t>5.3.</t>
+  </si>
+  <si>
+    <t>6.3.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -814,11 +817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1010,7 @@
       </c>
       <c r="N8" s="12">
         <f>SUM(I7:I42)</f>
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1164,8 +1167,12 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2</v>
+      </c>
       <c r="J14" s="15" t="s">
         <v>27</v>
       </c>
@@ -1184,8 +1191,12 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5</v>
+      </c>
       <c r="J15" s="15" t="s">
         <v>28</v>
       </c>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LammBoja\Desktop\Pelikurssi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veni\Desktop\Pelikurssi GitHub\Pelikurssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -159,12 +159,18 @@
   </si>
   <si>
     <t>6.3.</t>
+  </si>
+  <si>
+    <t>8.3.</t>
+  </si>
+  <si>
+    <t>9.3.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -817,11 +823,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1051,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1437,8 +1443,12 @@
       <c r="G30" s="3"/>
       <c r="H30" s="1"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="3"/>
+      <c r="J30" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
@@ -1449,8 +1459,12 @@
       <c r="G31" s="3"/>
       <c r="H31" s="1"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="3"/>
+      <c r="J31" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>9.3.</t>
+  </si>
+  <si>
+    <t>10.3.</t>
   </si>
 </sst>
 </file>
@@ -826,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1054,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1475,8 +1478,12 @@
       <c r="G32" s="3"/>
       <c r="H32" s="1"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="3"/>
+      <c r="J32" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>10.3.</t>
+  </si>
+  <si>
+    <t>11.3.</t>
   </si>
 </sst>
 </file>
@@ -829,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1057,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1494,8 +1497,12 @@
       <c r="G33" s="3"/>
       <c r="H33" s="1"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="3"/>
+      <c r="J33" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>48</v>
       </c>
       <c r="K33" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>11.3.</t>
+  </si>
+  <si>
+    <t>12.3.</t>
+  </si>
+  <si>
+    <t>14.3.</t>
+  </si>
+  <si>
+    <t>15.3.</t>
   </si>
 </sst>
 </file>
@@ -832,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1066,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1513,8 +1522,12 @@
       <c r="G34" s="3"/>
       <c r="H34" s="1"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="3"/>
+      <c r="J34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
@@ -1525,8 +1538,12 @@
       <c r="G35" s="3"/>
       <c r="H35" s="1"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="3"/>
+      <c r="J35" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
@@ -1537,8 +1554,12 @@
       <c r="G36" s="3"/>
       <c r="H36" s="1"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="3"/>
+      <c r="J36" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>15.3.</t>
+  </si>
+  <si>
+    <t>16.3.</t>
+  </si>
+  <si>
+    <t>17.3.</t>
+  </si>
+  <si>
+    <t>18.3.</t>
+  </si>
+  <si>
+    <t>19.3.</t>
   </si>
 </sst>
 </file>
@@ -842,7 +854,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1078,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1570,8 +1582,12 @@
       <c r="G37" s="3"/>
       <c r="H37" s="1"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="3"/>
+      <c r="J37" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
@@ -1582,8 +1598,12 @@
       <c r="G38" s="3"/>
       <c r="H38" s="1"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="3"/>
+      <c r="J38" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
@@ -1594,8 +1614,12 @@
       <c r="G39" s="3"/>
       <c r="H39" s="1"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="3"/>
+      <c r="J39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
@@ -1606,8 +1630,12 @@
       <c r="G40" s="3"/>
       <c r="H40" s="1"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="3"/>
+      <c r="J40" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veni\Desktop\Pelikurssi GitHub\Pelikurssi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LammBoja\Desktop\Pelikurssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371ECD13-D2ED-4DB5-B9E1-FE227A8B83B3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="8610"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -192,12 +193,15 @@
   </si>
   <si>
     <t>19.3.</t>
+  </si>
+  <si>
+    <t>21.3.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -850,11 +854,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1047,7 @@
       </c>
       <c r="N8" s="12">
         <f>SUM(I7:I42)</f>
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1244,8 +1248,12 @@
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
       <c r="J16" s="15" t="s">
         <v>29</v>
       </c>
@@ -1260,8 +1268,12 @@
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
       <c r="J17" s="15" t="s">
         <v>30</v>
       </c>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LammBoja\Desktop\Pelikurssi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veni\Desktop\Pelikurssi GitHub\Pelikurssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371ECD13-D2ED-4DB5-B9E1-FE227A8B83B3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -201,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -854,11 +853,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1081,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1658,8 +1657,12 @@
       <c r="G41" s="3"/>
       <c r="H41" s="1"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="3"/>
+      <c r="J41" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>21.3.</t>
+  </si>
+  <si>
+    <t>22.3.</t>
   </si>
 </sst>
 </file>
@@ -857,7 +860,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1084,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K42)</f>
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1673,8 +1676,12 @@
       <c r="G42" s="3"/>
       <c r="H42" s="1"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="3"/>
+      <c r="J42" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -198,6 +198,30 @@
   </si>
   <si>
     <t>22.3.</t>
+  </si>
+  <si>
+    <t>23.3.</t>
+  </si>
+  <si>
+    <t>24.3.</t>
+  </si>
+  <si>
+    <t>27.3.</t>
+  </si>
+  <si>
+    <t>29.3.</t>
+  </si>
+  <si>
+    <t>3.4.</t>
+  </si>
+  <si>
+    <t>4.4.</t>
+  </si>
+  <si>
+    <t>5.4.</t>
+  </si>
+  <si>
+    <t>30.3.</t>
   </si>
 </sst>
 </file>
@@ -500,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -543,6 +567,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -860,7 +885,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,8 +1108,8 @@
         <v>18</v>
       </c>
       <c r="N9" s="14">
-        <f>SUM(K7:K42)</f>
-        <v>159</v>
+        <f>SUM(K7:K50)</f>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1692,8 +1717,12 @@
       <c r="G43" s="3"/>
       <c r="H43" s="1"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="3"/>
+      <c r="J43" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
@@ -1704,8 +1733,12 @@
       <c r="G44" s="3"/>
       <c r="H44" s="1"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="3"/>
+      <c r="J44" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
@@ -1716,8 +1749,12 @@
       <c r="G45" s="3"/>
       <c r="H45" s="1"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="3"/>
+      <c r="J45" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
@@ -1728,8 +1765,12 @@
       <c r="G46" s="3"/>
       <c r="H46" s="1"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="3"/>
+      <c r="J46" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
@@ -1740,8 +1781,12 @@
       <c r="G47" s="3"/>
       <c r="H47" s="1"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="3"/>
+      <c r="J47" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
@@ -1752,8 +1797,12 @@
       <c r="G48" s="3"/>
       <c r="H48" s="1"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="3"/>
+      <c r="J48" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
@@ -1764,8 +1813,12 @@
       <c r="G49" s="3"/>
       <c r="H49" s="1"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="3"/>
+      <c r="J49" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
@@ -1776,8 +1829,12 @@
       <c r="G50" s="3"/>
       <c r="H50" s="1"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="3"/>
+      <c r="J50" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K50" s="30">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>30.3.</t>
+  </si>
+  <si>
+    <t>6.4.</t>
   </si>
 </sst>
 </file>
@@ -548,6 +551,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -567,7 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -882,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,65 +903,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="21" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="21" t="s">
+      <c r="I4" s="23"/>
+      <c r="J4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="M4" s="24" t="s">
+      <c r="K4" s="23"/>
+      <c r="M4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="25"/>
+      <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1111,8 @@
         <v>18</v>
       </c>
       <c r="N9" s="14">
-        <f>SUM(K7:K50)</f>
-        <v>189</v>
+        <f>SUM(K7:K60)</f>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1832,8 +1835,16 @@
       <c r="J50" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="K50" s="30">
+      <c r="K50" s="21">
         <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J51" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K51" s="21">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>6.4.</t>
+  </si>
+  <si>
+    <t>7.4.</t>
   </si>
 </sst>
 </file>
@@ -885,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1115,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K60)</f>
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1845,6 +1848,14 @@
       </c>
       <c r="K51" s="21">
         <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J52" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K52" s="21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>7.4.</t>
+  </si>
+  <si>
+    <t>9.4.</t>
   </si>
 </sst>
 </file>
@@ -888,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,7 +1118,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K60)</f>
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1856,6 +1859,14 @@
       </c>
       <c r="K52" s="21">
         <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J53" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K53" s="21">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veni\Desktop\Pelikurssi GitHub\Pelikurssi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LammBoja\Desktop\Pelikurssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD83E6E-AF21-4098-B9C8-245F32619F60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="8610"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -231,12 +232,18 @@
   </si>
   <si>
     <t>9.4.</t>
+  </si>
+  <si>
+    <t>11.4.</t>
+  </si>
+  <si>
+    <t>Mallinnus &amp; Musiikki</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -890,11 +897,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +972,7 @@
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="27" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="8" t="s">
@@ -1052,7 +1059,7 @@
       </c>
       <c r="N7" s="12">
         <f>SUM(G7:G42)</f>
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1064,8 +1071,12 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
       <c r="H8" s="16" t="s">
         <v>22</v>
       </c>
@@ -1083,7 +1094,7 @@
       </c>
       <c r="N8" s="12">
         <f>SUM(I7:I42)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1099,8 +1110,12 @@
       <c r="E9" s="3">
         <v>5</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
       <c r="H9" s="16" t="s">
         <v>23</v>
       </c>
@@ -1118,7 +1133,7 @@
       </c>
       <c r="N9" s="14">
         <f>SUM(K7:K60)</f>
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1134,8 +1149,12 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1162,8 +1181,12 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1347,12 @@
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
       <c r="J18" s="15" t="s">
         <v>31</v>
       </c>
@@ -1867,6 +1894,14 @@
       </c>
       <c r="K53" s="21">
         <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J54" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K54" s="21">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LammBoja\Desktop\Pelikurssi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moonface\Documents\GitHub\Pelikurssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD83E6E-AF21-4098-B9C8-245F32619F60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6458851-973F-434E-8BDE-E7A69A678539}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Mallinnus &amp; Musiikki</t>
+  </si>
+  <si>
+    <t>12.4.</t>
   </si>
 </sst>
 </file>
@@ -900,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1027,7 @@
       </c>
       <c r="N6" s="12">
         <f>SUM(E7:E42)</f>
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1303,8 +1306,12 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
       <c r="H16" s="1" t="s">
@@ -1323,8 +1330,12 @@
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="3"/>
       <c r="H17" s="1" t="s">
@@ -1343,8 +1354,12 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="3"/>
       <c r="H18" s="1" t="s">
@@ -1363,8 +1378,12 @@
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="3"/>
       <c r="H19" s="1"/>
@@ -1379,8 +1398,12 @@
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="3"/>
       <c r="H20" s="1"/>
@@ -1395,8 +1418,12 @@
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="3"/>
       <c r="H21" s="1"/>
@@ -1411,8 +1438,12 @@
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="3"/>
       <c r="H22" s="1"/>
@@ -1427,8 +1458,12 @@
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="3"/>
       <c r="H23" s="1"/>
@@ -1443,8 +1478,12 @@
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="3"/>
+      <c r="D24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
       <c r="H24" s="1"/>
@@ -1459,8 +1498,12 @@
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="3"/>
+      <c r="D25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="3"/>
       <c r="H25" s="1"/>
@@ -1475,8 +1518,12 @@
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="3"/>
       <c r="H26" s="1"/>
@@ -1491,8 +1538,12 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="3"/>
       <c r="H27" s="1"/>
@@ -1507,8 +1558,12 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="3"/>
       <c r="H28" s="1"/>
@@ -1523,8 +1578,12 @@
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
+      <c r="D29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="3">
+        <v>7</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="3"/>
       <c r="H29" s="1"/>
@@ -1539,8 +1598,12 @@
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
+      <c r="D30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="3"/>
       <c r="H30" s="1"/>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LammBoja\Desktop\Pelikurssi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Documents\Koulu\Pelikurssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD83E6E-AF21-4098-B9C8-245F32619F60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B19AB91-48DC-434F-9804-744519C9D7D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="23040" windowHeight="8616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>Mallinnus &amp; Musiikki</t>
+  </si>
+  <si>
+    <t>23.2.</t>
+  </si>
+  <si>
+    <t>31.3.</t>
+  </si>
+  <si>
+    <t>7.3.</t>
+  </si>
+  <si>
+    <t>25.3.</t>
   </si>
 </sst>
 </file>
@@ -561,9 +573,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -584,9 +593,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -901,80 +913,80 @@
   <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:14" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="22" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="22" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="M4" s="25" t="s">
+      <c r="K4" s="22"/>
+      <c r="M4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="26"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="27" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="8" t="s">
         <v>10</v>
       </c>
@@ -984,10 +996,10 @@
       </c>
       <c r="N5" s="12">
         <f>SUM(C7:C50)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1027,7 +1039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1062,9 +1074,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
-        <v>0.12638888888888888</v>
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -1097,9 +1109,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20">
-        <v>0.4597222222222222</v>
+    <row r="9" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -1136,9 +1148,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
-        <v>0.95972222222222225</v>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -1168,7 +1180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
         <v>38</v>
       </c>
@@ -1200,7 +1212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>40</v>
       </c>
@@ -1228,9 +1240,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="3"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
       <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
@@ -1252,9 +1268,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="3"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
       <c r="D14" s="16" t="s">
         <v>27</v>
       </c>
@@ -1276,9 +1296,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="3"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1300,9 +1324,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="3"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
@@ -1320,9 +1348,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="3"/>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
@@ -1340,9 +1372,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="3"/>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
@@ -1360,7 +1396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="18"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
@@ -1376,7 +1412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
@@ -1392,7 +1428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
       <c r="C21" s="3"/>
       <c r="D21" s="1"/>
@@ -1408,7 +1444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="3"/>
       <c r="D22" s="1"/>
@@ -1424,7 +1460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="3"/>
       <c r="D23" s="1"/>
@@ -1440,7 +1476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
       <c r="C24" s="3"/>
       <c r="D24" s="1"/>
@@ -1456,7 +1492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="18"/>
       <c r="C25" s="3"/>
       <c r="D25" s="1"/>
@@ -1472,7 +1508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
       <c r="C26" s="3"/>
       <c r="D26" s="1"/>
@@ -1488,7 +1524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
@@ -1504,7 +1540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
       <c r="C28" s="3"/>
       <c r="D28" s="1"/>
@@ -1520,7 +1556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
       <c r="C29" s="3"/>
       <c r="D29" s="1"/>
@@ -1536,7 +1572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="3"/>
       <c r="D30" s="1"/>
@@ -1552,7 +1588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
       <c r="D31" s="1"/>
@@ -1568,7 +1604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="3"/>
       <c r="D32" s="1"/>
@@ -1584,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
       <c r="D33" s="1"/>
@@ -1600,7 +1636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
       <c r="D34" s="1"/>
@@ -1616,7 +1652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="1"/>
@@ -1632,7 +1668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="1"/>
@@ -1648,7 +1684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="1"/>
@@ -1664,7 +1700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
       <c r="D38" s="1"/>
@@ -1680,7 +1716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="1"/>
@@ -1696,7 +1732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
       <c r="D40" s="1"/>
@@ -1712,7 +1748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="1"/>
@@ -1728,7 +1764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
       <c r="D42" s="1"/>
@@ -1744,7 +1780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
       <c r="D43" s="1"/>
@@ -1760,7 +1796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
       <c r="D44" s="1"/>
@@ -1776,7 +1812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
       <c r="D45" s="1"/>
@@ -1792,7 +1828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
       <c r="D46" s="1"/>
@@ -1808,7 +1844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="1"/>
@@ -1824,7 +1860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
       <c r="D48" s="1"/>
@@ -1840,7 +1876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
       <c r="D49" s="1"/>
@@ -1856,7 +1892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
       <c r="D50" s="1"/>
@@ -1868,39 +1904,39 @@
       <c r="J50" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J51" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J52" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K52" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J53" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K53" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J54" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K54" s="20">
         <v>4</v>
       </c>
     </row>

--- a/Ryhmä3 työaikapäiväkirja.xlsx
+++ b/Ryhmä3 työaikapäiväkirja.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LammBoja\Desktop\Pelikurssi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Documents\Koulu\Pelikurssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD83E6E-AF21-4098-B9C8-245F32619F60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D41AFCD-396C-4128-879B-42DC34240FDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="23040" windowHeight="8616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
   <si>
     <t xml:space="preserve">Ryhmä 3 tuntipäiväkirja </t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Mallinnus &amp; Musiikki</t>
+  </si>
+  <si>
+    <t>1.4.</t>
   </si>
 </sst>
 </file>
@@ -586,7 +589,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -901,21 +904,21 @@
   <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -925,8 +928,8 @@
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -955,7 +958,7 @@
       </c>
       <c r="N4" s="26"/>
     </row>
-    <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -984,10 +987,10 @@
       </c>
       <c r="N5" s="12">
         <f>SUM(C7:C50)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1027,7 +1030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="20">
         <v>0.12638888888888888</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="20">
         <v>0.4597222222222222</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="20">
         <v>0.95972222222222225</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
         <v>38</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>40</v>
       </c>
@@ -1228,9 +1231,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="3"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
       <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
@@ -1252,9 +1259,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="3"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
       <c r="D14" s="16" t="s">
         <v>27</v>
       </c>
@@ -1276,9 +1287,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="3"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1300,9 +1315,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="3"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
@@ -1320,9 +1339,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="3"/>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
@@ -1340,9 +1363,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="3"/>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
@@ -1360,7 +1387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="18"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
@@ -1376,7 +1403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
@@ -1392,7 +1419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
       <c r="C21" s="3"/>
       <c r="D21" s="1"/>
@@ -1408,7 +1435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="3"/>
       <c r="D22" s="1"/>
@@ -1424,7 +1451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="3"/>
       <c r="D23" s="1"/>
@@ -1440,7 +1467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
       <c r="C24" s="3"/>
       <c r="D24" s="1"/>
@@ -1456,7 +1483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="18"/>
       <c r="C25" s="3"/>
       <c r="D25" s="1"/>
@@ -1472,7 +1499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
       <c r="C26" s="3"/>
       <c r="D26" s="1"/>
@@ -1488,7 +1515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
@@ -1504,7 +1531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
       <c r="C28" s="3"/>
       <c r="D28" s="1"/>
@@ -1520,7 +1547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
       <c r="C29" s="3"/>
       <c r="D29" s="1"/>
@@ -1536,7 +1563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="3"/>
       <c r="D30" s="1"/>
@@ -1552,7 +1579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
       <c r="D31" s="1"/>
@@ -1568,7 +1595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="3"/>
       <c r="D32" s="1"/>
@@ -1584,7 +1611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
       <c r="D33" s="1"/>
@@ -1600,7 +1627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
       <c r="D34" s="1"/>
@@ -1616,7 +1643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="1"/>
@@ -1632,7 +1659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="1"/>
@@ -1648,7 +1675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="1"/>
@@ -1664,7 +1691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
       <c r="D38" s="1"/>
@@ -1680,7 +1707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="1"/>
@@ -1696,7 +1723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
       <c r="D40" s="1"/>
@@ -1712,7 +1739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="1"/>
@@ -1728,7 +1755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
       <c r="D42" s="1"/>
@@ -1744,7 +1771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
       <c r="D43" s="1"/>
@@ -1760,7 +1787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
       <c r="D44" s="1"/>
@@ -1776,7 +1803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
       <c r="D45" s="1"/>
@@ -1792,7 +1819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
       <c r="D46" s="1"/>
@@ -1808,7 +1835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="1"/>
@@ -1824,7 +1851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
       <c r="D48" s="1"/>
@@ -1840,7 +1867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
       <c r="D49" s="1"/>
@@ -1856,7 +1883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
       <c r="D50" s="1"/>
@@ -1872,7 +1899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J51" s="15" t="s">
         <v>66</v>
       </c>
@@ -1880,7 +1907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J52" s="15" t="s">
         <v>67</v>
       </c>
@@ -1888,7 +1915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J53" s="15" t="s">
         <v>68</v>
       </c>
@@ -1896,7 +1923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J54" s="15" t="s">
         <v>69</v>
       </c>
